--- a/data_sheets/towns.xlsx
+++ b/data_sheets/towns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AFA9EC-B2F1-49C4-9C50-5085C81F7656}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB62C2-7BA8-43F3-9EF3-D83886498D17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>40.4381311</v>
+        <v>40.416951400000002</v>
       </c>
       <c r="F3">
-        <v>-3.8196218000000002</v>
+        <v>-3.7057172</v>
       </c>
       <c r="G3">
         <v>13</v>

--- a/data_sheets/towns.xlsx
+++ b/data_sheets/towns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEB62C2-7BA8-43F3-9EF3-D83886498D17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F52733-3815-4812-B7F0-ED9786DE20F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
+    <workbookView xWindow="22932" yWindow="-4356" windowWidth="30936" windowHeight="16896" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Towns" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -121,6 +118,72 @@
   </si>
   <si>
     <t>U-Bahn</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>rome</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>stockholm</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>amsterdam</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>lisbon</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>moscow</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>barcelona</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>tokyo</t>
   </si>
 </sst>
 </file>
@@ -164,9 +227,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,222 +545,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D28E414-4E16-4B41-99B9-DFDB36752E79}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>51.509969499999997</v>
+      </c>
+      <c r="E2">
+        <v>-0.1371599</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1863</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>40.416951400000002</v>
+      </c>
+      <c r="E3">
+        <v>-3.7057172</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>1919</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>41.394768800000001</v>
+      </c>
+      <c r="E4">
+        <v>2.0787277999999998</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>51.509969499999997</v>
-      </c>
-      <c r="F2">
-        <v>-0.1371599</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>1863</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>40.416951400000002</v>
-      </c>
-      <c r="F3">
-        <v>-3.7057172</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>1919</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>40.723437099999998</v>
-      </c>
-      <c r="F4">
-        <v>-74.029020200000005</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>1904</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>40.723437099999998</v>
+      </c>
+      <c r="E5">
+        <v>-74.029020200000005</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1904</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>42.335840099999999</v>
+      </c>
+      <c r="E6">
+        <v>-71.098050200000003</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1897</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>42.335840099999999</v>
-      </c>
-      <c r="F5">
-        <v>-71.098050200000003</v>
-      </c>
-      <c r="G5">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>48.858950700000001</v>
+      </c>
+      <c r="E7">
+        <v>2.2770199999999998</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1900</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>52.514007100000001</v>
+      </c>
+      <c r="E8">
+        <v>13.3468087</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>1902</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>41.909986000000004</v>
+      </c>
+      <c r="E9">
+        <v>12.395913500000001</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>59.3260668</v>
+      </c>
+      <c r="E10" s="2">
+        <v>17.841971000000001</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="H5">
-        <v>1897</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>48.858950700000001</v>
-      </c>
-      <c r="F6">
-        <v>2.2770199999999998</v>
-      </c>
-      <c r="G6">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>41.833392500000002</v>
+      </c>
+      <c r="E11">
+        <v>-88.012150000000005</v>
+      </c>
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="H6">
-        <v>1900</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>52.514007100000001</v>
-      </c>
-      <c r="F7">
-        <v>13.3468087</v>
-      </c>
-      <c r="G7">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>52.354565299999997</v>
+      </c>
+      <c r="E12">
+        <v>4.7585402999999999</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>38.743605700000003</v>
+      </c>
+      <c r="E13">
+        <v>-9.2302434000000009</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>55.580748100000001</v>
+      </c>
+      <c r="E14">
+        <v>36.825123699999999</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>1902</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.668162500000001</v>
+      </c>
+      <c r="E15">
+        <v>139.60078250000001</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sheets/towns.xlsx
+++ b/data_sheets/towns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F52733-3815-4812-B7F0-ED9786DE20F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF96402-F05E-4A13-85C3-0CD8CC1D4141}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4356" windowWidth="30936" windowHeight="16896" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Towns" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -175,15 +175,6 @@
   </si>
   <si>
     <t>barcelona</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>tokyo</t>
   </si>
 </sst>
 </file>
@@ -545,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D28E414-4E16-4B41-99B9-DFDB36752E79}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,26 +871,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.668162500000001</v>
-      </c>
-      <c r="E15">
-        <v>139.60078250000001</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/data_sheets/towns.xlsx
+++ b/data_sheets/towns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF96402-F05E-4A13-85C3-0CD8CC1D4141}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0312F6-90FD-42D5-9DCE-B8E68E52C7DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
+    <workbookView xWindow="22932" yWindow="-4356" windowWidth="30936" windowHeight="16896" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Towns" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -175,22 +175,20 @@
   </si>
   <si>
     <t>barcelona</t>
+  </si>
+  <si>
+    <t>Tunnelbana</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,9 +216,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +536,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,6 +642,12 @@
       <c r="F4">
         <v>13</v>
       </c>
+      <c r="G4">
+        <v>1924</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -769,7 +772,12 @@
       <c r="F9">
         <v>12</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="G9">
+        <v>1955</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -784,11 +792,17 @@
       <c r="D10">
         <v>59.3260668</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>17.841971000000001</v>
       </c>
       <c r="F10">
         <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1950</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -810,6 +824,12 @@
       <c r="F11">
         <v>12</v>
       </c>
+      <c r="G11">
+        <v>1892</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -830,6 +850,12 @@
       <c r="F12">
         <v>13</v>
       </c>
+      <c r="G12">
+        <v>1977</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -850,6 +876,12 @@
       <c r="F13">
         <v>13</v>
       </c>
+      <c r="G13">
+        <v>1959</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -869,6 +901,12 @@
       </c>
       <c r="F14">
         <v>12</v>
+      </c>
+      <c r="G14">
+        <v>1935</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data_sheets/towns.xlsx
+++ b/data_sheets/towns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\tubemaphistory\tube-map-history.api\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0312F6-90FD-42D5-9DCE-B8E68E52C7DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4C2CB-E79F-41A0-8076-31D4FD897BA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4356" windowWidth="30936" windowHeight="16896" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
+    <workbookView xWindow="24576" yWindow="-2712" windowWidth="23040" windowHeight="12204" xr2:uid="{6A4D07FD-A3BF-472B-A872-BFD1BF1F63B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Towns" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D28E414-4E16-4B41-99B9-DFDB36752E79}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +548,7 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +573,11 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -596,8 +602,11 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -622,8 +631,11 @@
       <c r="H3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -648,8 +660,11 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -674,8 +689,11 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -700,8 +718,11 @@
       <c r="H6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -726,8 +747,11 @@
       <c r="H7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -752,8 +776,11 @@
       <c r="H8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -778,8 +805,11 @@
       <c r="H9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -804,8 +834,11 @@
       <c r="H10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -830,8 +863,11 @@
       <c r="H11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -856,8 +892,11 @@
       <c r="H12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -882,8 +921,11 @@
       <c r="H13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -907,6 +949,9 @@
       </c>
       <c r="H14" t="s">
         <v>23</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
